--- a/data/trans_dic/P17_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8432256316014681</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7802408456364631</v>
+        <v>0.7802408456364633</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7437809576212169</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6373193682678462</v>
+        <v>0.6369571358517371</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7150762495541834</v>
+        <v>0.7177912497086708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.756347208883609</v>
+        <v>0.7537751776077788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6547755261284017</v>
+        <v>0.6592314616072799</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7838461269229183</v>
+        <v>0.7871462707665189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.811333904213861</v>
+        <v>0.8099447966766994</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8145210609381477</v>
+        <v>0.8115765650381689</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7529760637944984</v>
+        <v>0.7533675643821561</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.722295240228126</v>
+        <v>0.7180570659715345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.774373151801904</v>
+        <v>0.7735645491182865</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7920831006539024</v>
+        <v>0.7917379756959956</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7148901634653378</v>
+        <v>0.7179647836979136</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7076763528605835</v>
+        <v>0.7081708070734689</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7840804474619756</v>
+        <v>0.7815437609251701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8182198709196158</v>
+        <v>0.8173782477051512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7358598936140751</v>
+        <v>0.739394857179371</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8411620847384662</v>
+        <v>0.8441263238509659</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8686026488746105</v>
+        <v>0.8685428245320498</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8701675613488077</v>
+        <v>0.8679435043596375</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.803378282440838</v>
+        <v>0.8068988946035971</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7658760595625749</v>
+        <v>0.7671637407849747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8179538483545358</v>
+        <v>0.8179962106000229</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8345142043275239</v>
+        <v>0.8346973804771445</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7634945299776966</v>
+        <v>0.7657145230592486</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7615800437513183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7120847905233181</v>
+        <v>0.7120847905233183</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7847140321435955</v>
@@ -833,7 +833,7 @@
         <v>0.8036421748240932</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7444155324410967</v>
+        <v>0.7444155324410966</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6200187485152271</v>
+        <v>0.6200499890567389</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6971055156216449</v>
+        <v>0.6970505802652676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7356201317305204</v>
+        <v>0.7349024834914937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6789372441594325</v>
+        <v>0.6781757349763976</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7559351395287154</v>
+        <v>0.7529136214067587</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8112169117897706</v>
+        <v>0.8080577435317715</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8183798554128997</v>
+        <v>0.8235383076303977</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7515217175378671</v>
+        <v>0.7538173611491661</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6971933274484174</v>
+        <v>0.6949870866801247</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7636495787194642</v>
+        <v>0.7638947882084818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7858420184695701</v>
+        <v>0.784889814535106</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7252293562046935</v>
+        <v>0.7228680604932952</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6866194862921446</v>
+        <v>0.682857114984452</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7566621686546766</v>
+        <v>0.7564534029295003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7896560303167358</v>
+        <v>0.788258809271978</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7421205137342847</v>
+        <v>0.7413597434920834</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8104101086800112</v>
+        <v>0.8079863225623813</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8626572990458764</v>
+        <v>0.8597733581177454</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8654474003967958</v>
+        <v>0.867429395259563</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8011223260866556</v>
+        <v>0.7998282225161749</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7385880293256476</v>
+        <v>0.7384327571369314</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8024101352689123</v>
+        <v>0.8020799141453482</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8219231967912903</v>
+        <v>0.8208449494120658</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7632983098753113</v>
+        <v>0.7632621325908562</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7062398724466524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6132972569180076</v>
+        <v>0.6132972569180075</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7382247678393548</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5154587016688121</v>
+        <v>0.5186150884086665</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6208094741224552</v>
+        <v>0.6177298356741464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6705103047246521</v>
+        <v>0.6683295563150204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5730954711641811</v>
+        <v>0.5717103244031724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7079265741565084</v>
+        <v>0.7048220726376102</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7426461256411656</v>
+        <v>0.7411921995992733</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7544441522048094</v>
+        <v>0.7564546068078647</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7247078829413599</v>
+        <v>0.7262358967703179</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.620159108193448</v>
+        <v>0.6209407726981012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6926258854482004</v>
+        <v>0.6923623818288582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7243062979613306</v>
+        <v>0.7248028527284597</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6615297300748914</v>
+        <v>0.6590514443503439</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6003916747789866</v>
+        <v>0.5970448154255661</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6932216349295433</v>
+        <v>0.6906608674206377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7389743425849762</v>
+        <v>0.7368723884187011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6601864602271724</v>
+        <v>0.6536689510569597</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7706912897694786</v>
+        <v>0.7709323002318158</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8080371526564036</v>
+        <v>0.8052032534733153</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.812658621938634</v>
+        <v>0.8147130438058913</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.788601883499348</v>
+        <v>0.7814618376719057</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6731160296813766</v>
+        <v>0.6751039825295088</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7381609350782726</v>
+        <v>0.7416633893168827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7684719692027143</v>
+        <v>0.7697428372546875</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7140459492827295</v>
+        <v>0.7087099417679416</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.7863533514171143</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7617762804320098</v>
+        <v>0.7617762804320097</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6724453510141388</v>
@@ -1105,7 +1105,7 @@
         <v>0.7545540821502731</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7212066416989137</v>
+        <v>0.7212066416989135</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5716419704111986</v>
+        <v>0.5766788209457315</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6702525108398705</v>
+        <v>0.6712775422239021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6887355979758663</v>
+        <v>0.6880007417411595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6388425264633403</v>
+        <v>0.6429808483793226</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7047024858499288</v>
+        <v>0.7033777600102041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8025828186826243</v>
+        <v>0.8032688550781567</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7585165617820739</v>
+        <v>0.7590480569430355</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7383396833440629</v>
+        <v>0.7370860088559833</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6518388473592257</v>
+        <v>0.6521922368025476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7485353026582061</v>
+        <v>0.7498355758104963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7336638921820627</v>
+        <v>0.7353467113533079</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7003511580203646</v>
+        <v>0.7019019253703614</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6346334262105667</v>
+        <v>0.6355126220410088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7302575391373187</v>
+        <v>0.7316511900379317</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7497828560348383</v>
+        <v>0.7486548074409299</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7078679216510291</v>
+        <v>0.7095020417091458</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7602053961260897</v>
+        <v>0.7594888522557399</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8474938863759113</v>
+        <v>0.849441626277235</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8101609167184647</v>
+        <v>0.8098701695433618</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7855632244628311</v>
+        <v>0.7845977204628163</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6919444113642531</v>
+        <v>0.6947858082103789</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7870386223113948</v>
+        <v>0.7863025572732036</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7726692661525363</v>
+        <v>0.7734959646930484</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7422838716461849</v>
+        <v>0.7439668448194813</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.742382130370966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7652925706874355</v>
@@ -1229,7 +1229,7 @@
         <v>0.8143099857757806</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6959294833155656</v>
@@ -1241,7 +1241,7 @@
         <v>0.7791047487428887</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>441684</v>
+        <v>441433</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>502290</v>
+        <v>504197</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>510383</v>
+        <v>508647</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>451407</v>
+        <v>454479</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>539561</v>
+        <v>541833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>565540</v>
+        <v>564572</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>544244</v>
+        <v>542277</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>551745</v>
+        <v>552032</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>997768</v>
+        <v>991913</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1083718</v>
+        <v>1082587</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1063749</v>
+        <v>1063286</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1016689</v>
+        <v>1021062</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>490444</v>
+        <v>490786</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>550760</v>
+        <v>548978</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>552135</v>
+        <v>551567</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>507308</v>
+        <v>509745</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>579015</v>
+        <v>581055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>605459</v>
+        <v>605418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>581426</v>
+        <v>579940</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>588677</v>
+        <v>591257</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1057970</v>
+        <v>1059748</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1144708</v>
+        <v>1144768</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1120733</v>
+        <v>1120979</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1085812</v>
+        <v>1088969</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>595721</v>
+        <v>595751</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>708878</v>
+        <v>708822</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>751329</v>
+        <v>750596</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>709688</v>
+        <v>708892</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>732042</v>
+        <v>729116</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>834745</v>
+        <v>831495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>851407</v>
+        <v>856774</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>802618</v>
+        <v>805070</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1345028</v>
+        <v>1340772</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1562344</v>
+        <v>1562845</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1620180</v>
+        <v>1618217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1532615</v>
+        <v>1527625</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>659712</v>
+        <v>656097</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>769441</v>
+        <v>769228</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>806519</v>
+        <v>805092</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>775733</v>
+        <v>774937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>784795</v>
+        <v>782448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>887678</v>
+        <v>884710</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>900374</v>
+        <v>902436</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>855591</v>
+        <v>854209</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1424887</v>
+        <v>1424587</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1641644</v>
+        <v>1640968</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1694569</v>
+        <v>1692346</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1613065</v>
+        <v>1612989</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>348451</v>
+        <v>350584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>470340</v>
+        <v>468006</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>504879</v>
+        <v>503237</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>458977</v>
+        <v>457867</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>484109</v>
+        <v>481986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>577165</v>
+        <v>576035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>591504</v>
+        <v>593080</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>586889</v>
+        <v>588127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>843318</v>
+        <v>844381</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1063040</v>
+        <v>1062636</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1113262</v>
+        <v>1114025</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1065527</v>
+        <v>1061535</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>405865</v>
+        <v>403603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>525201</v>
+        <v>523261</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>556431</v>
+        <v>554848</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>528726</v>
+        <v>523506</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>527030</v>
+        <v>527195</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>627985</v>
+        <v>625783</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>637145</v>
+        <v>638756</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>638633</v>
+        <v>632850</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>915331</v>
+        <v>918035</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1132927</v>
+        <v>1138303</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1181144</v>
+        <v>1183098</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1150115</v>
+        <v>1141521</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>535792</v>
+        <v>540513</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>635224</v>
+        <v>636196</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>644927</v>
+        <v>644238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>629614</v>
+        <v>633693</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>730568</v>
+        <v>729195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>844238</v>
+        <v>844959</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>788010</v>
+        <v>788562</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>822871</v>
+        <v>821474</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1286723</v>
+        <v>1287421</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1496801</v>
+        <v>1499401</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1449187</v>
+        <v>1452511</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1470768</v>
+        <v>1474024</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>594833</v>
+        <v>595657</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>692094</v>
+        <v>693414</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>702091</v>
+        <v>701034</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>697643</v>
+        <v>699253</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>788108</v>
+        <v>787365</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>891480</v>
+        <v>893528</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>841662</v>
+        <v>841360</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>875501</v>
+        <v>874425</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1365891</v>
+        <v>1371500</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1573794</v>
+        <v>1572322</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1526234</v>
+        <v>1527866</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1558828</v>
+        <v>1562362</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
     </row>
     <row r="24">
